--- a/_Sample_RPA.xlsx
+++ b/_Sample_RPA.xlsx
@@ -7,7 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell_Create" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Fourth Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Second Sheet" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Third Sheet" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Copied Sheet" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -410,11 +414,47 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
     <tabColor rgb="00ff0066"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,348 +465,53 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>번호</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>영어</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>수학</t>
+          <t>뭘보냐</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C2" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>85</v>
-      </c>
-      <c r="C3" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>75</v>
-      </c>
-      <c r="C4" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>61</v>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>35</v>
-      </c>
-      <c r="C7" t="n">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>13</v>
-      </c>
-      <c r="C8" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>96</v>
-      </c>
-      <c r="C9" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>30</v>
-      </c>
-      <c r="C10" t="n">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>73</v>
-      </c>
-      <c r="C11" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>79</v>
-      </c>
-      <c r="C12" t="n">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>37</v>
-      </c>
-      <c r="C13" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>16</v>
-      </c>
-      <c r="C14" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>77</v>
-      </c>
-      <c r="C15" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>40</v>
-      </c>
-      <c r="C16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>100</v>
-      </c>
-      <c r="C17" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" t="n">
-        <v>27</v>
-      </c>
-      <c r="C19" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" t="n">
-        <v>47</v>
-      </c>
-      <c r="C20" t="n">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n">
-        <v>4</v>
-      </c>
-      <c r="C21" t="n">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" t="n">
-        <v>100</v>
-      </c>
-      <c r="C22" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n">
-        <v>37</v>
-      </c>
-      <c r="C23" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n">
-        <v>40</v>
-      </c>
-      <c r="C24" t="n">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" t="n">
-        <v>34</v>
-      </c>
-      <c r="C25" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" t="n">
-        <v>44</v>
-      </c>
-      <c r="C26" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" t="n">
-        <v>22</v>
-      </c>
-      <c r="C27" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" t="n">
-        <v>78</v>
-      </c>
-      <c r="C28" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" t="n">
-        <v>34</v>
-      </c>
-      <c r="C29" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" t="n">
-        <v>4</v>
-      </c>
-      <c r="C30" t="n">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" t="n">
-        <v>20</v>
-      </c>
-      <c r="C31" t="n">
-        <v>99</v>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="00ff0066"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>뭘보냐</t>
+        </is>
       </c>
     </row>
   </sheetData>
